--- a/biology/Botanique/Canarium_(plante)/Canarium_(plante).xlsx
+++ b/biology/Botanique/Canarium_(plante)/Canarium_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Canarium regroupe une centaine d'espèces d'arbres de la famille des Burséracées originaires des régions tropicales d'Afrique et d'Asie.
-Grands arbres sempervirents de 40 à 50 m de hauteur[1], à feuilles alternes et pennées.
+Grands arbres sempervirents de 40 à 50 m de hauteur, à feuilles alternes et pennées.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces produisent des noix comestibles. C. luzonicum produit une résine aromatique appelée « élémi ».
 </t>
@@ -543,7 +557,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Canarium acutifolium (DC.) Merr.
@@ -574,7 +590,7 @@
 Canarium harami Bojer
 Canarium harveyi Seem.
 Canarium hirsutum Willd.
-Canarium indicum L. - noix de nangaille, ngoli, galap, nangaille, noix de Kanari, ou kenari (en Indonésie et en Malaisie)[2]
+Canarium indicum L. - noix de nangaille, ngoli, galap, nangaille, noix de Kanari, ou kenari (en Indonésie et en Malaisie)
 Canarium intermedium H.J.Lam
 Canarium kaniense Lauterb.
 Canarium karoense H.J.Lam
@@ -631,7 +647,7 @@
 Canarium vitiense A.Gray
 Canarium vittatistipulatum Guillaumin
 Canarium vrieseanum Engl.
-Canarium vulgare Leenh. - amande de Java[3]
+Canarium vulgare Leenh. - amande de Java
 Canarium whitei Guillaumin
 Canarium zeylanicum (Retz.) Blume
 </t>
